--- a/ScratchingKipris/driver/SearchList.xlsx
+++ b/ScratchingKipris/driver/SearchList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdgu\Desktop\Git\Python\ScratchingKipris\driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0978DB9-F244-493B-8019-18AC5F17C179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B44B4C-FB87-4FF8-980C-172E8F512BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F928BC0B-4615-43FE-8C20-8749DA4C031C}"/>
+    <workbookView xWindow="22932" yWindow="-180" windowWidth="23256" windowHeight="12456" xr2:uid="{F928BC0B-4615-43FE-8C20-8749DA4C031C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,15 +100,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생활용품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>애플</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전자제품</t>
+    <t>통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문구류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +512,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,15 +590,15 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
